--- a/biology/Médecine/Paul_Boulet_(1894-1982)/Paul_Boulet_(1894-1982).xlsx
+++ b/biology/Médecine/Paul_Boulet_(1894-1982)/Paul_Boulet_(1894-1982).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Paul Boulet est un homme politique français né le 8 septembre 1894 à Marseille (Bouches-du-Rhône) et mort le 27 juillet 1982 à Montpellier (Hérault).
@@ -512,7 +524,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Étudiant en médecine, Paul Boulet est mobilisé pendant la Première guerre mondiale et sert comme brancardier. Blessé au combat en 1916, il est fait prisonnier et ne rentre en France qu'en 1919.
 C'est pendant la guerre qu'il rencontre l'Abbé Basch, un ancien du Sillon, qui le sensibilise au catholicisme social. En 1919, il devient président de l'Association catholique de la jeunesse française, tout en reprenant ses études qui le conduisent à l'agrégation de médecine, qu'il obtient en 1926. Il devient par la suite professeur à la faculté de médecine de Montpellier.
@@ -528,7 +542,7 @@
 Son refus, par pacifisme, du pacte atlantique lui vaut, en 1950, d'être exclu du MRP. L'année suivante, il ne se représente pas aux cantonales, et mène sans succès une liste de gauche indépendante pour les législatives. Il perd, en 1953, la mairie de Montpellier et siège comme conseiller municipal d'opposition jusqu'en 1965.
 Pendant cette période, il s'engage dans les combats de la gauche pacifiste : opposé au réarmement allemand, à la CED, puis à la guerre du Viêt-Nam.
 De nouveau candidat aux législatives de 1956, sa liste obtient à peine 3 % des voix. Opposé au retour du général de Gaulle en 1958, il tente l'année suivante de reprendre la mairie de Montpellier et son canton de Saint-Martin-de-Londres, toujours en vain.
-Après 1965, il s'éloigne de la vie politique tout en continuant de manifester ses opinions de gauche. En 1977, il apporte son soutien à Georges Frêche qui emporte la mairie à la tête d'une liste d'union de la gauche[1].
+Après 1965, il s'éloigne de la vie politique tout en continuant de manifester ses opinions de gauche. En 1977, il apporte son soutien à Georges Frêche qui emporte la mairie à la tête d'une liste d'union de la gauche.
 </t>
         </is>
       </c>
@@ -557,9 +571,11 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Officier de la Légion d'honneur (Chevalier de la Légion d'honneur à titre militaire en 1920, il fut fait officier, au même titre en 1944)[2],[3]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Officier de la Légion d'honneur (Chevalier de la Légion d'honneur à titre militaire en 1920, il fut fait officier, au même titre en 1944),
  Croix de guerre 1914-1918 (Croix de guerre avec cinq citations)
  Croix de guerre 1939-1945
 </t>
